--- a/deployment/Omaha_Cal_Info_CE09OSSM_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CE09OSSM_00003.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29820" yWindow="1875" windowWidth="20730" windowHeight="11760" tabRatio="766"/>
+    <workbookView xWindow="29820" yWindow="1875" windowWidth="20730" windowHeight="11760" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="253">
   <si>
     <t>Ref Des</t>
   </si>
@@ -1893,7 +1893,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -2025,9 +2025,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q208"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M114" sqref="M114"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C183" sqref="C183:C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6027,9 +6027,7 @@
       </c>
     </row>
     <row r="173" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B173" s="40" t="s">
-        <v>218</v>
-      </c>
+      <c r="B173" s="40"/>
       <c r="G173" s="8"/>
     </row>
     <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.25">
